--- a/biology/Zoologie/Acerorhinus/Acerorhinus.xlsx
+++ b/biology/Zoologie/Acerorhinus/Acerorhinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acerorhinus est un genre fossile de mammifères périssodactyles ancêtres des rhinocéros actuels. Il est dépourvu de cornes, et doté de longues incisives inférieures comme les membres de sa sous-famille, les Aceratheriinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a d'abord été considéré comme endémique à l'Asie (en Chine essentiellement, et en Turquie : espèce A. zernowi), avant que deux crânes d'une seconde espèce, A. neleus, ne soient découverts en Grèce dans l'île d'Eubée, et décrits en 2014[1]. Ces deux espèces proviennent du Tortonien (Miocène supérieur), soit il y a environ entre 11,63 et 7,246 millions d'années.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a d'abord été considéré comme endémique à l'Asie (en Chine essentiellement, et en Turquie : espèce A. zernowi), avant que deux crânes d'une seconde espèce, A. neleus, ne soient découverts en Grèce dans l'île d'Eubée, et décrits en 2014. Ces deux espèces proviennent du Tortonien (Miocène supérieur), soit il y a environ entre 11,63 et 7,246 millions d'années.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Acerorhinus se caractérise par l'absence de cornes, par un crâne de taille modeste, un profil crânien dorsal moyennement concave, des crêtes pariétales très convergentes, des orbites relativement hautes, des arcades zygomatiques remarquablement développées et des mandibules robustes.
 </t>
@@ -573,10 +589,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2005, P.-O. Antoine et G. Saraç le placent dans la tribu des Aceratheriini (ou Aceratherini)
-[2].
+.
 </t>
         </is>
       </c>
